--- a/CAGenTest/src/main/java/com/cagen/qa/testdata/SampleModel_TestData.xlsx
+++ b/CAGenTest/src/main/java/com/cagen/qa/testdata/SampleModel_TestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jk629972\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="5400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_Div" sheetId="1" r:id="rId1"/>
     <sheet name="Sample_Dept" sheetId="2" r:id="rId2"/>
     <sheet name="Sample_Emp" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -424,14 +420,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>111</v>
       </c>
@@ -453,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>222</v>
       </c>
@@ -464,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>333</v>
       </c>
@@ -488,14 +484,14 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -509,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1111</v>
       </c>
@@ -523,7 +519,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2222</v>
       </c>
@@ -537,7 +533,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3333</v>
       </c>
@@ -562,17 +558,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -586,7 +582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -600,7 +596,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -614,7 +610,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
